--- a/digitCNN/results/resultsBook.xlsx
+++ b/digitCNN/results/resultsBook.xlsx
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -540,6 +540,48 @@
         <v>0.97309999999999997</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>60000</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D11">
+        <v>0.95630000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>60000</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D12">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>60000</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D13">
+        <v>0.95579999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
